--- a/BEC/05-词汇相关/外贸函电翻译.xlsx
+++ b/BEC/05-词汇相关/外贸函电翻译.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="英译中" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="688">
   <si>
     <t>英文</t>
   </si>
@@ -25,835 +25,567 @@
     <t>中文</t>
   </si>
   <si>
-    <t>We have the pleasure to introduce ourselves to you with a view to building up business relations with you.</t>
-  </si>
-  <si>
-    <t>我方有幸自荐，以期与贵方建立贸易关系。</t>
-  </si>
-  <si>
-    <t>We intend that an enquiry for bicycles shall be sent to the manufactures in Britain.</t>
-  </si>
-  <si>
-    <t>我们打算给英国的制造厂商寄送一份自行车询价单。</t>
-  </si>
-  <si>
-    <t>As you know, it is our foreign trade policy to trade with the people of other countries on the basis of equality and mutual benefit.</t>
-  </si>
-  <si>
-    <t>如你方所知，我方的外贸政策是在平等互利的基础上与各国人民做贸易。</t>
-  </si>
-  <si>
-    <t>It will be highly appreciated if you will reply to our enquiry Note No. 2346 regarding Walnutmeat immediately.</t>
-  </si>
-  <si>
-    <t>如蒙立即对我方关于核桃仁的第2346号询价单作出答复，我方将十分感激。</t>
-  </si>
-  <si>
-    <t>Specializing in the export of "Fly Pigeon" Brand Bicycles, we express our desire to trade with you in the line.</t>
-  </si>
-  <si>
-    <t>我方专门出口“飞鸽”牌自行车，愿与贵方进行交易。</t>
-  </si>
-  <si>
-    <t>We are in receipt of your letter of March 10th, and as requested, are making you an offer as follows.</t>
-  </si>
-  <si>
-    <t>我方已收到你方3月10日来函，现按你方要求报价如下。</t>
-  </si>
-  <si>
-    <t>If you accept our offer, please cable us for our confirmation.</t>
-  </si>
-  <si>
-    <t>若你方接受我方报盘，请电报告知我方以便确认。</t>
-  </si>
-  <si>
-    <t>We are pleased to note from your letter of March 22nd that you are interested in our sewing machines.</t>
-  </si>
-  <si>
-    <t>从贵方3月22日来信中我方高兴地得悉贵方对我方缝纫机感兴趣。</t>
-  </si>
-  <si>
-    <t>In conformity with your request, we are sending you by air a catalogue for your reference.</t>
-  </si>
-  <si>
-    <t>按你方要求，我方航空寄去目录一本供你方参考。</t>
-  </si>
-  <si>
-    <t>Our leather products of "Rose" range are selling fast in western European countries.</t>
-  </si>
-  <si>
-    <t>我方的“玫瑰”系列皮革产品在西欧国家很畅销。</t>
+    <t>We have the pleasure to introduce ourselves to you with a view to building up business relations with you.
+我方有幸自荐，以期与贵方建立贸易关系。</t>
+  </si>
+  <si>
+    <t>We intend that an enquiry for bicycles shall be sent to the manufactures in Britain.
+我们打算给英国的制造厂商寄送一份自行车询价单。</t>
+  </si>
+  <si>
+    <t>As you know, it is our foreign trade policy to trade with the people of other countries on the basis of equality and mutual benefit.
+如你方所知，我方的外贸政策是在平等互利的基础上与各国人民做贸易。</t>
+  </si>
+  <si>
+    <t>It will be highly appreciated if you will reply to our enquiry Note No. 2346 regarding Walnutmeat immediately.
+如蒙立即对我方关于核桃仁的第2346号询价单作出答复，我方将十分感激。</t>
+  </si>
+  <si>
+    <t>Specializing in the export of "Fly Pigeon" Brand Bicycles, we express our desire to trade with you in the line.
+我方专门出口“飞鸽”牌自行车，愿与贵方进行交易。</t>
+  </si>
+  <si>
+    <t>We are in receipt of your letter of March 10th, and as requested, are making you an offer as follows.
+我方已收到你方3月10日来函，现按你方要求报价如下。</t>
+  </si>
+  <si>
+    <t>If you accept our offer, please cable us for our confirmation.
+若你方接受我方报盘，请电报告知我方以便确认。</t>
+  </si>
+  <si>
+    <t>We are pleased to note from your letter of March 22nd that you are interested in our sewing machines.
+从贵方3月22日来信中我方高兴地得悉贵方对我方缝纫机感兴趣。</t>
+  </si>
+  <si>
+    <t>In conformity with your request, we are sending you by air a catalogue for your reference.
+按你方要求，我方航空寄去目录一本供你方参考。</t>
+  </si>
+  <si>
+    <t>Our leather products of "Rose" range are selling fast in western European countries.
+我方的“玫瑰”系列皮革产品在西欧国家很畅销。</t>
   </si>
   <si>
     <t>单元综合测试二</t>
   </si>
   <si>
-    <t>We are interested in Forever Brand Bicycles with the following specifications. Please send us your proforma invoice in triplicate so as to enable us to apply for the import license.</t>
-  </si>
-  <si>
-    <t>我方对下列规格的永久牌自行车感兴趣，请你方寄形式发票一式三份，以便我方申请进口许可证。</t>
-  </si>
-  <si>
-    <t>If the foregoing in acceptable to you, we requested you to indicate by signing and returning to us one of the enclosed copies of this letter intent.</t>
-  </si>
-  <si>
-    <t>你方若同意接受我方上述的（建议），请明确告知，在本函所附副本上签字后寄回该副本。</t>
-  </si>
-  <si>
-    <t>In reply to your letter of June 10th, we regret to state that your price has been found too high to be acceptable.</t>
-  </si>
-  <si>
-    <t>兹答复你方6月10日的来信，我方发现你方报价太高，无法接受。</t>
-  </si>
-  <si>
-    <t>Please check all the terms listed in the contract and see if there is anything not in conformity with the terms agreed on.</t>
-  </si>
-  <si>
-    <t>请逐项检查一下合同的条款，看是否还有什么意见不一致的地方。</t>
-  </si>
-  <si>
-    <t>With regard to our order for 500 sets of tractors, we have already received your Sales Contract No. 6436.</t>
-  </si>
-  <si>
-    <t>关于我方向你订购的500台拖拉机，我方已收到你方第6436号销售合同。</t>
-  </si>
-  <si>
-    <t>Please advise us as to the specifications of those which can be shipped form stock, stating full particulars.</t>
-  </si>
-  <si>
-    <t>请把能够装运的存货的规格告知我方，要说明全部细目。</t>
-  </si>
-  <si>
-    <t>We gladly accept your order of September 24th. However, we must change Item 2 of your order slightly.</t>
-  </si>
-  <si>
-    <t>我方很高兴接受贵公司9月24日寄来的订单，不过我方必须稍微修改公司订单的第二项。</t>
-  </si>
-  <si>
-    <t>Thank you for your market survey, especially the price situation estimated from different sources of supply.</t>
-  </si>
-  <si>
-    <t>感谢你方做的市场调查，尤其是根据各方供应情况对价格趋势所进行的估计。</t>
-  </si>
-  <si>
-    <t>Unless otherwise stated or agreed upon, all prices are net without commission.</t>
-  </si>
-  <si>
-    <t>除非另有规定或经双方同意，所有价格都是不含佣金的净价。</t>
-  </si>
-  <si>
-    <t>In order to encourage business, we are prepared to allow you a discount of 5%.</t>
-  </si>
-  <si>
-    <t>为促进业务我方准备给你方5%的折扣。</t>
+    <t>We are interested in Forever Brand Bicycles with the following specifications. Please send us your proforma invoice in triplicate so as to enable us to apply for the import license.
+我方对下列规格的永久牌自行车感兴趣，请你方寄形式发票一式三份，以便我方申请进口许可证。</t>
+  </si>
+  <si>
+    <t>If the foregoing in acceptable to you, we requested you to indicate by signing and returning to us one of the enclosed copies of this letter intent.
+你方若同意接受我方上述的（建议），请明确告知，在本函所附副本上签字后寄回该副本。</t>
+  </si>
+  <si>
+    <t>In reply to your letter of June 10th, we regret to state that your price has been found too high to be acceptable.
+兹答复你方6月10日的来信，我方发现你方报价太高，无法接受。</t>
+  </si>
+  <si>
+    <t>Please check all the terms listed in the contract and see if there is anything not in conformity with the terms agreed on.
+请逐项检查一下合同的条款，看是否还有什么意见不一致的地方。</t>
+  </si>
+  <si>
+    <t>With regard to our order for 500 sets of tractors, we have already received your Sales Contract No. 6436.
+关于我方向你订购的500台拖拉机，我方已收到你方第6436号销售合同。</t>
+  </si>
+  <si>
+    <t>Please advise us as to the specifications of those which can be shipped form stock, stating full particulars.
+请把能够装运的存货的规格告知我方，要说明全部细目。</t>
+  </si>
+  <si>
+    <t>We gladly accept your order of September 24th. However, we must change Item 2 of your order slightly.
+我方很高兴接受贵公司9月24日寄来的订单，不过我方必须稍微修改公司订单的第二项。</t>
+  </si>
+  <si>
+    <t>Thank you for your market survey, especially the price situation estimated from different sources of supply.
+感谢你方做的市场调查，尤其是根据各方供应情况对价格趋势所进行的估计。</t>
+  </si>
+  <si>
+    <t>Unless otherwise stated or agreed upon, all prices are net without commission.
+除非另有规定或经双方同意，所有价格都是不含佣金的净价。</t>
+  </si>
+  <si>
+    <t>In order to encourage business, we are prepared to allow you a discount of 5%.
+为促进业务我方准备给你方5%的折扣。</t>
   </si>
   <si>
     <t>单元测试三</t>
   </si>
   <si>
-    <t>We consider it advisable to make it clear that the goods we ordered must be packed according to our instructions lest they should be damaged in transit.</t>
-  </si>
-  <si>
-    <t>我方所订的货必须按我方要求打包，以免在运输途中受损，我方认为这样明确一下是适当的。</t>
-  </si>
-  <si>
-    <t>We wish to draw your attention to the validity of the L/C since there is no possibility of extension.</t>
-  </si>
-  <si>
-    <t>我方特此提醒你方注意该信用证的有效期，因为此信用证无延展可能。</t>
-  </si>
-  <si>
-    <t>The amount of this L/C shall be restored automatically twice after negotiation.</t>
-  </si>
-  <si>
-    <t>本信用证项下金额于议付后自动循环两次。</t>
-  </si>
-  <si>
-    <t>The letter of credit explicitly stipulates that you must complete shipment within August, otherwise we have to cancel the order.</t>
-  </si>
-  <si>
-    <t>本信用证明确规定，你方必须在8月份内完成交货，否则我方不得不撤销订单。</t>
-  </si>
-  <si>
-    <t>We have received your L/C No.7898 issued by the Bank of China, Hangzhou branch, to the extent of USD 50000 in our favour.</t>
-  </si>
-  <si>
-    <t>我方已收到你方由杭州中国银行开出以我方为受益人的第7898号信用证，总金额为50000美金。</t>
-  </si>
-  <si>
-    <t>Many banks in Hongkong can issue letter of credit and effect in Renminbi.</t>
-  </si>
-  <si>
-    <t>香港的银行能够开立用人民币支付的信用证。</t>
-  </si>
-  <si>
-    <t>We wonder if you could pack the goods as follows: each table cloth in a paper bag, 7 pieces in different colour to a box.</t>
-  </si>
-  <si>
-    <t>我方不知道你方能否包装如下：每块台布袋一个纸袋，然后每7块不同颜色的台布袋一个盒子。</t>
-  </si>
-  <si>
-    <t>We can continue to offer credit only if you meet your obligations on time.</t>
-  </si>
-  <si>
-    <t>只要你方能够准时履行义务，我方将继续给你方提供信用。</t>
-  </si>
-  <si>
-    <t>In order to ensure the requested prompt shipment, please open the covering L/C which should reach us 10 days before the date of dispatch.</t>
-  </si>
-  <si>
-    <t>为保证如期装运，请开立有关信用证，此信用证须在发货前10天内到达我方。</t>
-  </si>
-  <si>
-    <t>Please amend the L/C to read: "transshipment and partial shipment allowed".</t>
-  </si>
-  <si>
-    <t>请修改信用证内容如下：“允许转船和分批转运”。</t>
+    <t>We consider it advisable to make it clear that the goods we ordered must be packed according to our instructions lest they should be damaged in transit.
+我方所订的货必须按我方要求打包，以免在运输途中受损，我方认为这样明确一下是适当的。</t>
+  </si>
+  <si>
+    <t>We wish to draw your attention to the validity of the L/C since there is no possibility of extension.
+我方特此提醒你方注意该信用证的有效期，因为此信用证无延展可能。</t>
+  </si>
+  <si>
+    <t>The amount of this L/C shall be restored automatically twice after negotiation.
+本信用证项下金额于议付后自动循环两次。</t>
+  </si>
+  <si>
+    <t>The letter of credit explicitly stipulates that you must complete shipment within August, otherwise we have to cancel the order.
+本信用证明确规定，你方必须在8月份内完成交货，否则我方不得不撤销订单。</t>
+  </si>
+  <si>
+    <t>We have received your L/C No.7898 issued by the Bank of China, Hangzhou branch, to the extent of USD 50000 in our favour.
+我方已收到你方由杭州中国银行开出以我方为受益人的第7898号信用证，总金额为50000美金。</t>
+  </si>
+  <si>
+    <t>Many banks in Hongkong can issue letter of credit and effect in Renminbi.
+香港的银行能够开立用人民币支付的信用证。</t>
+  </si>
+  <si>
+    <t>We wonder if you could pack the goods as follows: each table cloth in a paper bag, 7 pieces in different colour to a box.
+我方不知道你方能否包装如下：每块台布袋一个纸袋，然后每7块不同颜色的台布袋一个盒子。</t>
+  </si>
+  <si>
+    <t>We can continue to offer credit only if you meet your obligations on time.
+只要你方能够准时履行义务，我方将继续给你方提供信用。</t>
+  </si>
+  <si>
+    <t>In order to ensure the requested prompt shipment, please open the covering L/C which should reach us 10 days before the date of dispatch.
+为保证如期装运，请开立有关信用证，此信用证须在发货前10天内到达我方。</t>
+  </si>
+  <si>
+    <t>Please amend the L/C to read: "transshipment and partial shipment allowed".
+请修改信用证内容如下：“允许转船和分批转运”。</t>
   </si>
   <si>
     <t>单元综合测试四</t>
   </si>
   <si>
-    <t>We wish to draw your attention to the fact that our offer expires on October 15th.</t>
-  </si>
-  <si>
-    <t>我方请你方注意我方报盘的有效期到10月15号截止。</t>
-  </si>
-  <si>
-    <t>We have pleasure in informing you that your order has been shipped.</t>
-  </si>
-  <si>
-    <t>我方很高兴地通知你方订货已装运。</t>
-  </si>
-  <si>
-    <t>The cargo has been shipped on S.S. "Tian tai shan" for transshipment at Hongkong per S.S. "Flying Cloud".</t>
-  </si>
-  <si>
-    <t>这批货已由“天台山”轮运往香港并转运“飞云轮”。</t>
-  </si>
-  <si>
-    <t>Your close cooperation in this respect will be highly appreciated.</t>
-  </si>
-  <si>
-    <t>对贵方在这方面的密切合作，十分感谢。</t>
-  </si>
-  <si>
-    <t>We are sorry to learn that your goods were badly damaged during transit and the insurance company will compensate you for the losses according to the coverage arranged.</t>
-  </si>
-  <si>
-    <t>我方很遗憾得知你方货物在运输途中严重受损，保险公司将按投保先别赔偿损失。</t>
-  </si>
-  <si>
-    <t>We are therefore writing to ask you to accept return of the unsold balance of the batch referred to.</t>
-  </si>
-  <si>
-    <t>因此写信请求你方接受该批货物未售出部分退货。</t>
-  </si>
-  <si>
-    <t>The goods failed to reach the destination port as stipulated in the contract, so the loss caused should be for your account.</t>
-  </si>
-  <si>
-    <t>贵方发货没有按合同规定的日期内到达目的地，因此应承担由此引起的损失。</t>
-  </si>
-  <si>
-    <t>As soon as it is settled, we shall have the consignment returned to you with all expenses for your account.</t>
-  </si>
-  <si>
-    <t>一旦索赔解决，我方当立即将货物退回，一切费用由你方承担。</t>
-  </si>
-  <si>
-    <t>Should the damage be incurred, you may, within 60 days after the arrival of the consignment, file a claim with the insurance company.</t>
-  </si>
-  <si>
-    <t>如果发生损失，你方可以在收到货物60天内向保险公司提出索赔。</t>
-  </si>
-  <si>
-    <t>We regret these faulty sets of equipment were sent to you, and have today sent a replacement of 10 sets.</t>
-  </si>
-  <si>
-    <t>将有缺陷的设备运给你方深表歉意，今令运出10台替换设备。</t>
+    <t>We wish to draw your attention to the fact that our offer expires on October 15th.
+我方请你方注意我方报盘的有效期到10月15号截止。</t>
+  </si>
+  <si>
+    <t>We have pleasure in informing you that your order has been shipped.
+我方很高兴地通知你方订货已装运。</t>
+  </si>
+  <si>
+    <t>The cargo has been shipped on S.S. "Tian tai shan" for transshipment at Hongkong per S.S. "Flying Cloud".
+这批货已由“天台山”轮运往香港并转运“飞云轮”。</t>
+  </si>
+  <si>
+    <t>Your close cooperation in this respect will be highly appreciated.
+对贵方在这方面的密切合作，十分感谢。</t>
+  </si>
+  <si>
+    <t>We are sorry to learn that your goods were badly damaged during transit and the insurance company will compensate you for the losses according to the coverage arranged.
+我方很遗憾得知你方货物在运输途中严重受损，保险公司将按投保先别赔偿损失。</t>
+  </si>
+  <si>
+    <t>We are therefore writing to ask you to accept return of the unsold balance of the batch referred to.
+因此写信请求你方接受该批货物未售出部分退货。</t>
+  </si>
+  <si>
+    <t>The goods failed to reach the destination port as stipulated in the contract, so the loss caused should be for your account.
+贵方发货没有按合同规定的日期内到达目的地，因此应承担由此引起的损失。</t>
+  </si>
+  <si>
+    <t>As soon as it is settled, we shall have the consignment returned to you with all expenses for your account.
+一旦索赔解决，我方当立即将货物退回，一切费用由你方承担。</t>
+  </si>
+  <si>
+    <t>Should the damage be incurred, you may, within 60 days after the arrival of the consignment, file a claim with the insurance company.
+如果发生损失，你方可以在收到货物60天内向保险公司提出索赔。</t>
+  </si>
+  <si>
+    <t>We regret these faulty sets of equipment were sent to you, and have today sent a replacement of 10 sets.
+将有缺陷的设备运给你方深表歉意，今令运出10台替换设备。</t>
   </si>
   <si>
     <t>全真模拟一</t>
   </si>
   <si>
-    <t>Because the cost of air transportation is higher than sea transportation's cost, we generally choose the latter.</t>
-  </si>
-  <si>
-    <t>因为航空费用比海运运输费用高，所以我方通常选择后者。</t>
-  </si>
-  <si>
-    <t>The relative L/C should be issued through a third bank in China acceptable to the seller.</t>
-  </si>
-  <si>
-    <t>相关的信用证必须由卖方可接受的在中国的第三方银行开立。</t>
-  </si>
-  <si>
-    <t>We have to cancel the order since you can not accept"Cash Against Documents" on arrival of goods at destination.</t>
-  </si>
-  <si>
-    <t>既然你方不接受货抵目的地付现交单方式付款，我方不得不撤销订单。</t>
-  </si>
-  <si>
-    <t>Please let us know whether you have covered insurance against All Risks and War Risk.</t>
-  </si>
-  <si>
-    <t>请告知我方是已投保一切险和战争险。</t>
-  </si>
-  <si>
-    <t>Claims must be submitted within 20 days after the arrival fo the goods at the destination, otherwise they will not be considered.</t>
-  </si>
-  <si>
-    <t>索赔必须在货物运抵目的地后20天内提出，否则不予受理。</t>
-  </si>
-  <si>
-    <t>If you don't accept our propositions, we have no way but to submit the matter to arbitration.</t>
-  </si>
-  <si>
-    <t>若你方不接受我方的提议，我方只有提交仲裁解决。</t>
-  </si>
-  <si>
-    <t>We can make shipping arrangement for the goods only if you can open the relative L/C on time.</t>
-  </si>
-  <si>
-    <t>只要你准时开立相关的信用证，我方就能安排货物的装运。</t>
-  </si>
-  <si>
-    <t>It will be appreciated if you can make us your best firm offer.</t>
-  </si>
-  <si>
-    <t>如蒙贵方报给我方最好实盘，将十分感激。</t>
-  </si>
-  <si>
-    <t>If your price is moderate, we should like to place a trial order with you.</t>
-  </si>
-  <si>
-    <t>若你方价格公道，我方可以向你方下试订单。</t>
-  </si>
-  <si>
-    <t>We exceptionally accept delivery against D/P at sight, but this should not be regarded as a precedent.</t>
-  </si>
-  <si>
-    <t>破例接受付款方式为即期的付款交单，但不能认为是惯例。</t>
-  </si>
-  <si>
-    <t>We express our apologies for the mistake in the L/C.</t>
-  </si>
-  <si>
-    <t>对信用证的错误，我深表歉意。</t>
-  </si>
-  <si>
-    <t>We remind you that a minor discrepancy in colors is permissible.</t>
-  </si>
-  <si>
-    <t>我方提醒贵方颜色方面的差异是允许的。</t>
+    <t>Because the cost of air transportation is higher than sea transportation's cost, we generally choose the latter.
+因为航空费用比海运运输费用高，所以我方通常选择后者。</t>
+  </si>
+  <si>
+    <t>The relative L/C should be issued through a third bank in China acceptable to the seller.
+相关的信用证必须由卖方可接受的在中国的第三方银行开立。</t>
+  </si>
+  <si>
+    <t>We have to cancel the order since you can not accept"Cash Against Documents" on arrival of goods at destination.
+既然你方不接受货抵目的地付现交单方式付款，我方不得不撤销订单。</t>
+  </si>
+  <si>
+    <t>Please let us know whether you have covered insurance against All Risks and War Risk.
+请告知我方是已投保一切险和战争险。</t>
+  </si>
+  <si>
+    <t>Claims must be submitted within 20 days after the arrival fo the goods at the destination, otherwise they will not be considered.
+索赔必须在货物运抵目的地后20天内提出，否则不予受理。</t>
+  </si>
+  <si>
+    <t>If you don't accept our propositions, we have no way but to submit the matter to arbitration.
+若你方不接受我方的提议，我方只有提交仲裁解决。</t>
+  </si>
+  <si>
+    <t>We can make shipping arrangement for the goods only if you can open the relative L/C on time.
+只要你准时开立相关的信用证，我方就能安排货物的装运。</t>
+  </si>
+  <si>
+    <t>It will be appreciated if you can make us your best firm offer.
+如蒙贵方报给我方最好实盘，将十分感激。</t>
+  </si>
+  <si>
+    <t>If your price is moderate, we should like to place a trial order with you.
+若你方价格公道，我方可以向你方下试订单。</t>
+  </si>
+  <si>
+    <t>We exceptionally accept delivery against D/P at sight, but this should not be regarded as a precedent.
+破例接受付款方式为即期的付款交单，但不能认为是惯例。</t>
+  </si>
+  <si>
+    <t>We express our apologies for the mistake in the L/C.
+对信用证的错误，我深表歉意。</t>
+  </si>
+  <si>
+    <t>We remind you that a minor discrepancy in colors is permissible.
+我方提醒贵方颜色方面的差异是允许的。</t>
   </si>
   <si>
     <t>全真模拟演练二</t>
   </si>
   <si>
-    <t>Dealing with the import and export of chemical product, we can accept orders against customers' special requirements.</t>
-  </si>
-  <si>
-    <t>我方主要经营进出口化工产品，可按客户的特殊要求接受订单。</t>
-  </si>
-  <si>
-    <t>As agreed upon in the contract, the amount of the L/C shall be restored automatically twice after negotiation.</t>
-  </si>
-  <si>
-    <t>如合同规定，此信用证项下的金额于每次议付后自动循环两次。</t>
-  </si>
-  <si>
-    <t>We would like to place an order for 10000 tons "Yuanyang" rice at price of USD 2 each, for shipment during March or April.</t>
-  </si>
-  <si>
-    <t>我方想订购10000吨原阳大米，每公斤2美元，三、四月交货。</t>
-  </si>
-  <si>
-    <t>We are pleased to make our offer at a favourable price for our new designs as follows, which are of good quality and from stock at present.</t>
-  </si>
-  <si>
-    <t>我方很高兴以公道的价格就我们新设计的产品向你方报价，产品质量好且目前有现货。</t>
-  </si>
-  <si>
-    <t>We have booked shipping space on S.S. "Dongfang". The voyage normally takes one month.</t>
-  </si>
-  <si>
-    <t>我方已在“东风”号轮船上订了货舱。航程一般为一个月。</t>
-  </si>
-  <si>
-    <t>Tying up funds for half a year would cause us much inconvenience.</t>
-  </si>
-  <si>
-    <t>让资金沉淀半年会给我方造成很多不便。</t>
-  </si>
-  <si>
-    <t>Owing to heavy commitments, we regret having to decline your order.</t>
-  </si>
-  <si>
-    <t>由于我方承约过重，我方抱歉只能谢绝你方订单。</t>
-  </si>
-  <si>
-    <t>We generally cover your goods against All Risks and War Risk unless otherwise agreed in writing.</t>
-  </si>
-  <si>
-    <t>除非另有书面约定，我方一般投保一切险和战争险。</t>
-  </si>
-  <si>
-    <t>The cargoes shipped are in extremely inferior condition and our clients refuse to take delivery.</t>
-  </si>
-  <si>
-    <t>这批货物的品质极为低劣，我方客户拒绝提货。</t>
-  </si>
-  <si>
-    <t>The coverage of insurance and the value of the goods to be insured are in conformity with those stated in Sales Confirmation.</t>
-  </si>
-  <si>
-    <t>保险险别和投保金额与售货合同相一致。</t>
+    <t>Dealing with the import and export of chemical product, we can accept orders against customers' special requirements.
+我方主要经营进出口化工产品，可按客户的特殊要求接受订单。</t>
+  </si>
+  <si>
+    <t>As agreed upon in the contract, the amount of the L/C shall be restored automatically twice after negotiation.
+如合同规定，此信用证项下的金额于每次议付后自动循环两次。</t>
+  </si>
+  <si>
+    <t>We would like to place an order for 10000 tons "Yuanyang" rice at price of USD 2 each, for shipment during March or April.
+我方想订购10000吨原阳大米，每公斤2美元，三、四月交货。</t>
+  </si>
+  <si>
+    <t>We are pleased to make our offer at a favourable price for our new designs as follows, which are of good quality and from stock at present.
+我方很高兴以公道的价格就我们新设计的产品向你方报价，产品质量好且目前有现货。</t>
+  </si>
+  <si>
+    <t>We have booked shipping space on S.S. "Dongfang". The voyage normally takes one month.
+我方已在“东风”号轮船上订了货舱。航程一般为一个月。</t>
+  </si>
+  <si>
+    <t>Tying up funds for half a year would cause us much inconvenience.
+让资金沉淀半年会给我方造成很多不便。</t>
+  </si>
+  <si>
+    <t>Owing to heavy commitments, we regret having to decline your order.
+由于我方承约过重，我方抱歉只能谢绝你方订单。</t>
+  </si>
+  <si>
+    <t>We generally cover your goods against All Risks and War Risk unless otherwise agreed in writing.
+除非另有书面约定，我方一般投保一切险和战争险。</t>
+  </si>
+  <si>
+    <t>The cargoes shipped are in extremely inferior condition and our clients refuse to take delivery.
+这批货物的品质极为低劣，我方客户拒绝提货。</t>
+  </si>
+  <si>
+    <t>The coverage of insurance and the value of the goods to be insured are in conformity with those stated in Sales Confirmation.
+保险险别和投保金额与售货合同相一致。</t>
   </si>
   <si>
     <t>全真模拟演练三</t>
   </si>
   <si>
-    <t>Please let us know which items you are interested in once you study our catalogues and samples.</t>
-  </si>
-  <si>
-    <t>一旦你方研究了我方价目表和样品，请告知我方贵公司所感兴趣的货项。</t>
-  </si>
-  <si>
-    <t>The purchasers wanted to return the products, but the seller was unwilling to make any exception.</t>
-  </si>
-  <si>
-    <t>购买者想退货，但是买房不愿意让步。</t>
-  </si>
-  <si>
-    <t>Owing to increasing cost of raw materials, we may not be able to maintain the current price level, let alone bring down the price.</t>
-  </si>
-  <si>
-    <t>由于原材料成本上涨，我方可能无法维持现有的价格水平，更别说降价了。</t>
-  </si>
-  <si>
-    <t>If the quality of the goods doesn't conform to that stipulated in the contract, we will refuse to take delivery.</t>
-  </si>
-  <si>
-    <t>若货物的质量与合同规定不付，我方将拒绝提货。</t>
-  </si>
-  <si>
-    <t>Please reinforce the seaworthy packing to avoid unnecessary damage to the goods from poor packing.</t>
-  </si>
-  <si>
-    <t>请加强适合海运的包装，以免包装不结实造成不必要的损失。</t>
-  </si>
-  <si>
-    <t>We have received your L/C issued through the Bank of London for the amount of USD 50 000 in our favour.</t>
-  </si>
-  <si>
-    <t>我方已收到你方由伦敦银行开出的以我方为收益人的信用证，金额为50 000美元。</t>
-  </si>
-  <si>
-    <t>We regret to tell that on examination, the potatoes were found to be in badly damaged condition. This was apparently due to improper packing.</t>
-  </si>
-  <si>
-    <t>很遗憾地告诉你方，通过检验，这批土豆已严重受损。很明显这是包装不善所致。</t>
-  </si>
-  <si>
-    <t>If the quality to be ordered exceeds 1 000 sets, we may grant you a 3% discount.</t>
-  </si>
-  <si>
-    <t>如果订单数量超过1000台，我方可以给你方3%的折扣。</t>
-  </si>
-  <si>
-    <t>Because there are risks of pilferage to the goods, we can not accept that the goods are transshipped at that port.</t>
-  </si>
-  <si>
-    <t>因为在那个港口会有偷盗货物的风险，所以我方不接受那个港口转运。</t>
-  </si>
-  <si>
-    <t>We'll reserve the right to cancel the order and reject the goods if the goods are dispatched overdue.</t>
-  </si>
-  <si>
-    <t>逾期不到货，我方保留取消订单和拒绝提货的权利。</t>
+    <t>Please let us know which items you are interested in once you study our catalogues and samples.
+一旦你方研究了我方价目表和样品，请告知我方贵公司所感兴趣的货项。</t>
+  </si>
+  <si>
+    <t>The purchasers wanted to return the products, but the seller was unwilling to make any exception.
+购买者想退货，但是买房不愿意让步。</t>
+  </si>
+  <si>
+    <t>Owing to increasing cost of raw materials, we may not be able to maintain the current price level, let alone bring down the price.
+由于原材料成本上涨，我方可能无法维持现有的价格水平，更别说降价了。</t>
+  </si>
+  <si>
+    <t>If the quality of the goods doesn't conform to that stipulated in the contract, we will refuse to take delivery.
+若货物的质量与合同规定不付，我方将拒绝提货。</t>
+  </si>
+  <si>
+    <t>Please reinforce the seaworthy packing to avoid unnecessary damage to the goods from poor packing.
+请加强适合海运的包装，以免包装不结实造成不必要的损失。</t>
+  </si>
+  <si>
+    <t>We have received your L/C issued through the Bank of London for the amount of USD 50 000 in our favour.
+我方已收到你方由伦敦银行开出的以我方为收益人的信用证，金额为50 000美元。</t>
+  </si>
+  <si>
+    <t>We regret to tell that on examination, the potatoes were found to be in badly damaged condition. This was apparently due to improper packing.
+很遗憾地告诉你方，通过检验，这批土豆已严重受损。很明显这是包装不善所致。</t>
+  </si>
+  <si>
+    <t>If the quality to be ordered exceeds 1 000 sets, we may grant you a 3% discount.
+如果订单数量超过1000台，我方可以给你方3%的折扣。</t>
+  </si>
+  <si>
+    <t>Because there are risks of pilferage to the goods, we can not accept that the goods are transshipped at that port.
+因为在那个港口会有偷盗货物的风险，所以我方不接受那个港口转运。</t>
+  </si>
+  <si>
+    <t>We'll reserve the right to cancel the order and reject the goods if the goods are dispatched overdue.
+逾期不到货，我方保留取消订单和拒绝提货的权利。</t>
   </si>
   <si>
     <t>考前深度密押一</t>
   </si>
   <si>
-    <t>We have sent you our illustrated catalogue and price list for your reference and we look forward to your order soon.</t>
-  </si>
-  <si>
-    <t>我方已寄给你方带有插图的目录本和价目单供你方参考，希望不久后收到你方订单。</t>
-  </si>
-  <si>
-    <t>Please note that the goods supplied on approval must be returned, freight repaid, within 7 days if not required.</t>
-  </si>
-  <si>
-    <t>请注意，试销货物，如不需要须在7天内退回，运费先付。</t>
-  </si>
-  <si>
-    <t>Information indicates that some parcels of Turkish origion have been sold here at at level about ten percent lower than yours.</t>
-  </si>
-  <si>
-    <t>据悉，一些土耳其货比你方开价低10%。</t>
-  </si>
-  <si>
-    <t>We assure you that we shall work hard to execute the contract to your entire satisfaction.</t>
-  </si>
-  <si>
-    <t>为使贵公司满意，我方保证尽力执行本合同。</t>
-  </si>
-  <si>
-    <t>This delay in receiving your advice of dispatch will place us in an awkward position.</t>
-  </si>
-  <si>
-    <t>这次收到你方装运通知的延误，将使我方处于困境。</t>
-  </si>
-  <si>
-    <t>We note that you require the coverage to include War Risk. But our quotation of CIF price includes WPA. So if you want to cover War Risk, additional premium will be for your account.</t>
-  </si>
-  <si>
-    <t>我方已注意到你方要求投保战争险，但要知道我方CIF价只包括水渍险，因此你方若想加保战争险，则增加的保险费由你方负担。</t>
-  </si>
-  <si>
-    <t>As requested, we have covered on the 10 000 dozen men's shirts against All Risks.</t>
-  </si>
-  <si>
-    <t>按你方要求，我方已将10000打男士衬衫投保一切险。</t>
-  </si>
-  <si>
-    <t>If one part of the contract has been branched, it does not necessarily mean a termination of the entire contract.</t>
-  </si>
-  <si>
-    <t>若本协议的部分被违反，并不意味着整个协议的终止。</t>
-  </si>
-  <si>
-    <t>We are obliged to lodge a claim against you for the loss we have sustained.</t>
-  </si>
-  <si>
-    <t>对我方所遭受的损失，我方必须向你方提出索赔。</t>
+    <t>We have sent you our illustrated catalogue and price list for your reference and we look forward to your order soon.
+我方已寄给你方带有插图的目录本和价目单供你方参考，希望不久后收到你方订单。</t>
+  </si>
+  <si>
+    <t>Please note that the goods supplied on approval must be returned, freight repaid, within 7 days if not required.
+请注意，试销货物，如不需要须在7天内退回，运费先付。</t>
+  </si>
+  <si>
+    <t>Information indicates that some parcels of Turkish origion have been sold here at at level about ten percent lower than yours.
+据悉，一些土耳其货比你方开价低10%。</t>
+  </si>
+  <si>
+    <t>We assure you that we shall work hard to execute the contract to your entire satisfaction.
+为使贵公司满意，我方保证尽力执行本合同。</t>
+  </si>
+  <si>
+    <t>This delay in receiving your advice of dispatch will place us in an awkward position.
+这次收到你方装运通知的延误，将使我方处于困境。</t>
+  </si>
+  <si>
+    <t>We note that you require the coverage to include War Risk. But our quotation of CIF price includes WPA. So if you want to cover War Risk, additional premium will be for your account.
+我方已注意到你方要求投保战争险，但要知道我方CIF价只包括水渍险，因此你方若想加保战争险，则增加的保险费由你方负担。</t>
+  </si>
+  <si>
+    <t>As requested, we have covered on the 10 000 dozen men's shirts against All Risks.
+按你方要求，我方已将10000打男士衬衫投保一切险。</t>
+  </si>
+  <si>
+    <t>If one part of the contract has been branched, it does not necessarily mean a termination of the entire contract.
+若本协议的部分被违反，并不意味着整个协议的终止。</t>
+  </si>
+  <si>
+    <t>We are obliged to lodge a claim against you for the loss we have sustained.
+对我方所遭受的损失，我方必须向你方提出索赔。</t>
   </si>
   <si>
     <t>考前深度密押二</t>
   </si>
   <si>
-    <t>Thanks for your enquiry dated May 15th, we are now sending you our latest price list for your reference.</t>
-  </si>
-  <si>
-    <t>感谢贵方5月15日的询函，我方现已寄去最新的价目单供你方参考。</t>
-  </si>
-  <si>
-    <t>We make you the following offer, subject to your reply reaching us not later than noon time, December 20th.</t>
-  </si>
-  <si>
-    <t>现报盘如下，（此报盘）以你方12月20日中午前复到有效。</t>
-  </si>
-  <si>
-    <t>We are greatly sorry for the delay in shipment, which has been due to circumstance beyond our control.</t>
-  </si>
-  <si>
-    <t>我方对出现了不可抗力的情况而引起的装船延误深表歉意。</t>
-  </si>
-  <si>
-    <t>We can safely say for sure that our prices are quite realistic. Other suppliers can not possibly under-quote us if their goods are as good as ours in quality.</t>
-  </si>
-  <si>
-    <t>可以肯定地说我方价格是合理的，质量与我方产品相同的供货商不可能报比我方低的价格。</t>
-  </si>
-  <si>
-    <t>The goods must be shipped before June, otherwise we won't be in time for the selling season.</t>
-  </si>
-  <si>
-    <t>货物在6月份之前必须装船，否则就赶不上销售季节了。</t>
-  </si>
-  <si>
-    <t>The market is not so active this year as it was last year. If you can reduce your limit by 3%, there is a possibility of getting business done.</t>
-  </si>
-  <si>
-    <t>这里市场不如去年活跃，如你方能降价，比方3%，成交就有希望。</t>
-  </si>
-  <si>
-    <t>Your quoted price is out of line with the prevailing level. That's why we feel confident that our suggestion of three percent off your present one is workable.</t>
-  </si>
-  <si>
-    <t>你方报价与市价有差异，所以我方坚信减价3%的建议是可行的。</t>
-  </si>
-  <si>
-    <t>In order to avoid subsequent amendments, please see to it that the L/C stipulations must be in exact accordance with the terms of the contract.</t>
-  </si>
-  <si>
-    <t>为了避免随后修改信用证，务必要使信用证规定事项与合约条款完全一致。</t>
-  </si>
-  <si>
-    <t>Our clients have lodged complaints with us about the breakage of chinaware.</t>
-  </si>
-  <si>
-    <t>客户已经就陶瓷器的破碎问题向我方提出了投诉。</t>
-  </si>
-  <si>
-    <t>We wish to dispose the goods wrongly delivered and request you refund to us our disbursement of the loss incurred.</t>
-  </si>
-  <si>
-    <t>我方要求降价处理你方错发的货物，并赔偿由此而产生的损失。</t>
-  </si>
-  <si>
-    <t>Your name and address has been given to us by China Council for the Promotion of International Trade.</t>
-  </si>
-  <si>
-    <t>据中国国际贸易促进委员会介绍，得知贵公司的名称和地址。</t>
-  </si>
-  <si>
-    <t>We are interested in the mechanical toys demonstrated at the recent Guangzhou Trade Fair.</t>
-  </si>
-  <si>
-    <t>我方对你方最近在广交会上展列的机械玩具感兴趣。</t>
-  </si>
-  <si>
-    <t>If you have any further questions, pls feel free to ask us.</t>
-  </si>
-  <si>
-    <t>若你方有任何其他问题，请随时向我方询问。</t>
-  </si>
-  <si>
-    <t>Please send us a firm offer for bicycles.</t>
-  </si>
-  <si>
-    <t>请向我方报自行车的实盘。</t>
-  </si>
-  <si>
-    <t>We make you this offer, subject to your reply reaching us within ten days.</t>
-  </si>
-  <si>
-    <t>我方报盘如下，十天内复到有效。</t>
-  </si>
-  <si>
-    <t>There is no question that we get the necessary import license from our authorities.</t>
-  </si>
-  <si>
-    <t>从当局获得我方所需要的进口许可证是没问题的。</t>
-  </si>
-  <si>
-    <t>Party B is not entitled to change the price quoted by Party A, but a proposal in connection with the price is acceptable.</t>
-  </si>
-  <si>
-    <t>B方无权更改A方所报考价格，但提出有关价格的建议是可以接受的。</t>
-  </si>
-  <si>
-    <t>In view of our long-standing friendly trade relations, we can consider a reduction of 5% in our price.</t>
-  </si>
-  <si>
-    <t>鉴于我们双方长久的良好的业务关系，可以考虑给你方减价5%。</t>
-  </si>
-  <si>
-    <t>Much to our regret, we are unable to accept your price, which is too high and out of line with prevailing market level.</t>
-  </si>
-  <si>
-    <t>很遗憾，由于你方价格太高，脱离行市时价，我方难以接受。</t>
-  </si>
-  <si>
-    <t>We are in contact with the paper mill and will soon let you know what they say.</t>
-  </si>
-  <si>
-    <t>我方正与造纸厂联系，马上会把他们的意思告诉你方。</t>
-  </si>
-  <si>
-    <t>Your confirmed, irrevocable L/C No. 216 issued by the Bank of China has arrived.</t>
-  </si>
-  <si>
-    <t>你方由中国银行开来的第216号，保兑的，不可撤销的信用证已收到。</t>
-  </si>
-  <si>
-    <t>We are empowered to send your shipment by air express.</t>
-  </si>
-  <si>
-    <t>我方将授权以航空特快发运你方货物。</t>
-  </si>
-  <si>
-    <t>In order to avoid subsequent amendments, please see to the following.</t>
-  </si>
-  <si>
-    <t>为了避免以后修改信用证，请你们务必注意下列事项。</t>
-  </si>
-  <si>
-    <t>We confirm having concluded the following transaction with you.</t>
-  </si>
-  <si>
-    <t>兹确认已与你方达成以下交易。</t>
-  </si>
-  <si>
-    <t>We only accept payment by irrevocable L/C payment against shipping documents.</t>
-  </si>
-  <si>
-    <t>我方只接受不可撤销的，凭装船单据付款的信用证。</t>
-  </si>
-  <si>
-    <t>1000 tons fertilizers have been shipped per S.S. "East Wind".</t>
-  </si>
-  <si>
-    <t>一千吨肥料已由“东风”转装运。</t>
-  </si>
-  <si>
-    <t>We wish you to insure the goods for the invoice value plus 10%.</t>
-  </si>
-  <si>
-    <t>我方希望你方按发票金额110%投保。</t>
-  </si>
-  <si>
-    <t>We found half the goods broken.</t>
-  </si>
-  <si>
-    <t>发现货物多半破碎。</t>
-  </si>
-  <si>
-    <t>We register our claim with you as follows.</t>
-  </si>
-  <si>
-    <t>我方就下列问题向你方提出索赔。</t>
-  </si>
-  <si>
-    <t>When this case was delivered to your carriers, it was full and sound case.</t>
-  </si>
-  <si>
-    <t>在我方将本箱交你方承运人时，箱里内容完整无损。</t>
-  </si>
-  <si>
-    <t>For our credit standing, please refer to the Bank of China, Xi'an branch.</t>
-  </si>
-  <si>
-    <t>关于我方的资信状况，请向中国银行西安分行查询。</t>
-  </si>
-  <si>
-    <t>We trust that our offer compares moderately with the quotations you can get elsewhere.</t>
-  </si>
-  <si>
-    <t>我方相信我方的报价比你方从别处得到的都要公道。</t>
-  </si>
-  <si>
-    <t>Much to our regret, we can't accept your offer for the time being.</t>
-  </si>
-  <si>
-    <t>很遗憾，我方暂时不能接受贵方报盘。</t>
-  </si>
-  <si>
-    <t>We can hardly find the Bill of Lading you mentioned in your letter.</t>
-  </si>
-  <si>
-    <t>我方没找到你方来信所提到的那张提单。</t>
-  </si>
-  <si>
-    <t>Our clients are in the market for Chinese Green Tea.</t>
-  </si>
-  <si>
-    <t>我方客户想要购买中国绿茶。</t>
-  </si>
-  <si>
-    <t>We wish to call your attention to the validity of the offer since there is no possibility of offer extension.</t>
-  </si>
-  <si>
-    <t>此报盘无延展可能，特此提醒贵方注意其有效期。</t>
-  </si>
-  <si>
-    <t>The "Revocable" L/C is not acceptable to us.</t>
-  </si>
-  <si>
-    <t>我方不接受“可撤销”的信用证。</t>
-  </si>
-  <si>
-    <t>We take the liberty of writing to you with a view to doing business with you.</t>
-  </si>
-  <si>
-    <t>我方冒昧自荐，希望和贵方做生意。</t>
-  </si>
-  <si>
-    <t>Establishing the L/C would increase the costs of our import.</t>
-  </si>
-  <si>
-    <t>开立信用证会增加我方进口成本。</t>
-  </si>
-  <si>
-    <t>On receipt of your amendment we shall arrange shipment without delay.</t>
-  </si>
-  <si>
-    <t>一旦收到贵方修改通知书，我方当即安排交货。</t>
-  </si>
-  <si>
-    <t>As your counter-offer is beyond what is acceptable to us, we can not help but return your order.</t>
-  </si>
-  <si>
-    <t>无法接受贵方还盘，只得退回订单。</t>
-  </si>
-  <si>
-    <t>Please arrange for the immediate shipment for our order for the potatoes.</t>
-  </si>
-  <si>
-    <t>请贵方马上安排装运这批土豆。</t>
-  </si>
-  <si>
-    <t>We have kept the price close to the costs of productions.</t>
-  </si>
-  <si>
-    <t>我方已经把价格压到接近成本了。</t>
-  </si>
-  <si>
-    <t>Please send us your proforma invoice in triplicate.</t>
-  </si>
-  <si>
-    <t>请贵方寄形式发票一式三份。</t>
-  </si>
-  <si>
-    <t>We shall be very sorry if this delay has put you to any inconvenience.</t>
-  </si>
-  <si>
-    <t>倘若此次延误给贵方造成任何困难，我方将十分抱歉。</t>
-  </si>
-  <si>
-    <t>The details converning packing and marking must be strictly observed.</t>
-  </si>
-  <si>
-    <t>关于包装及标志的细节，必须严格遵守。</t>
-  </si>
-  <si>
-    <t>We hope this matter will not affect our good relations in our future dealings.</t>
-  </si>
-  <si>
-    <t>我方希望此事不会影响我们在未来交易中的良好关系。</t>
-  </si>
-  <si>
-    <t>Our price is on the high side, but the quality of our products is good.</t>
-  </si>
-  <si>
-    <t>虽然我方产品价格偏高，但产品质量很好。</t>
-  </si>
-  <si>
-    <t>It will be appreciated, if you immediately let us have your firm offer for TV sets.</t>
-  </si>
-  <si>
-    <t>如果能早日收到贵方有关电视机的实盘，我方将不胜感激。</t>
-  </si>
-  <si>
-    <t>The L/C explicitly stipulates that you shall complete shipment within one month.</t>
-  </si>
-  <si>
-    <t>信用证明规定，你方必须在一个月内完成交货。</t>
-  </si>
-  <si>
-    <t>In case of transshipment, we have to pay extra transportation charges and premium.</t>
-  </si>
-  <si>
-    <t>货物如果转运，我方得多付运费和保险费。</t>
-  </si>
-  <si>
-    <t>We hope that you'll pay more attention to the quality of your goods in the future.</t>
-  </si>
-  <si>
-    <t>希望贵方以后多注意产品的质量问题。</t>
+    <t>Thanks for your enquiry dated May 15th, we are now sending you our latest price list for your reference.
+感谢贵方5月15日的询函，我方现已寄去最新的价目单供你方参考。</t>
+  </si>
+  <si>
+    <t>We make you the following offer, subject to your reply reaching us not later than noon time, December 20th.
+现报盘如下，（此报盘）以你方12月20日中午前复到有效。</t>
+  </si>
+  <si>
+    <t>We are greatly sorry for the delay in shipment, which has been due to circumstance beyond our control.
+我方对出现了不可抗力的情况而引起的装船延误深表歉意。</t>
+  </si>
+  <si>
+    <t>We can safely say for sure that our prices are quite realistic. Other suppliers can not possibly under-quote us if their goods are as good as ours in quality.
+可以肯定地说我方价格是合理的，质量与我方产品相同的供货商不可能报比我方低的价格。</t>
+  </si>
+  <si>
+    <t>The goods must be shipped before June, otherwise we won't be in time for the selling season.
+货物在6月份之前必须装船，否则就赶不上销售季节了。</t>
+  </si>
+  <si>
+    <t>The market is not so active this year as it was last year. If you can reduce your limit by 3%, there is a possibility of getting business done.
+这里市场不如去年活跃，如你方能降价，比方3%，成交就有希望。</t>
+  </si>
+  <si>
+    <t>Your quoted price is out of line with the prevailing level. That's why we feel confident that our suggestion of three percent off your present one is workable.
+你方报价与市价有差异，所以我方坚信减价3%的建议是可行的。</t>
+  </si>
+  <si>
+    <t>In order to avoid subsequent amendments, please see to it that the L/C stipulations must be in exact accordance with the terms of the contract.
+为了避免随后修改信用证，务必要使信用证规定事项与合约条款完全一致。</t>
+  </si>
+  <si>
+    <t>Our clients have lodged complaints with us about the breakage of chinaware.
+客户已经就陶瓷器的破碎问题向我方提出了投诉。</t>
+  </si>
+  <si>
+    <t>We wish to dispose the goods wrongly delivered and request you refund to us our disbursement of the loss incurred.
+我方要求降价处理你方错发的货物，并赔偿由此而产生的损失。</t>
+  </si>
+  <si>
+    <t>Your name and address has been given to us by China Council for the Promotion of International Trade.
+据中国国际贸易促进委员会介绍，得知贵公司的名称和地址。</t>
+  </si>
+  <si>
+    <t>We are interested in the mechanical toys demonstrated at the recent Guangzhou Trade Fair.
+我方对你方最近在广交会上展列的机械玩具感兴趣。</t>
+  </si>
+  <si>
+    <t>If you have any further questions, pls feel free to ask us.
+若你方有任何其他问题，请随时向我方询问。</t>
+  </si>
+  <si>
+    <t>Please send us a firm offer for bicycles.
+请向我方报自行车的实盘。</t>
+  </si>
+  <si>
+    <t>We make you this offer, subject to your reply reaching us within ten days.
+我方报盘如下，十天内复到有效。</t>
+  </si>
+  <si>
+    <t>There is no question that we get the necessary import license from our authorities.
+从当局获得我方所需要的进口许可证是没问题的。</t>
+  </si>
+  <si>
+    <t>Party B is not entitled to change the price quoted by Party A, but a proposal in connection with the price is acceptable.
+B方无权更改A方所报考价格，但提出有关价格的建议是可以接受的。</t>
+  </si>
+  <si>
+    <t>In view of our long-standing friendly trade relations, we can consider a reduction of 5% in our price.
+鉴于我们双方长久的良好的业务关系，可以考虑给你方减价5%。</t>
+  </si>
+  <si>
+    <t>Much to our regret, we are unable to accept your price, which is too high and out of line with prevailing market level.
+很遗憾，由于你方价格太高，脱离行市时价，我方难以接受。</t>
+  </si>
+  <si>
+    <t>We are in contact with the paper mill and will soon let you know what they say.
+我方正与造纸厂联系，马上会把他们的意思告诉你方。</t>
+  </si>
+  <si>
+    <t>Your confirmed, irrevocable L/C No. 216 issued by the Bank of China has arrived.
+你方由中国银行开来的第216号，保兑的，不可撤销的信用证已收到。</t>
+  </si>
+  <si>
+    <t>We are empowered to send your shipment by air express.
+我方将授权以航空特快发运你方货物。</t>
+  </si>
+  <si>
+    <t>In order to avoid subsequent amendments, please see to the following.
+为了避免以后修改信用证，请你们务必注意下列事项。</t>
+  </si>
+  <si>
+    <t>We confirm having concluded the following transaction with you.
+兹确认已与你方达成以下交易。</t>
+  </si>
+  <si>
+    <t>We only accept payment by irrevocable L/C payment against shipping documents.
+我方只接受不可撤销的，凭装船单据付款的信用证。</t>
+  </si>
+  <si>
+    <t>1000 tons fertilizers have been shipped per S.S. "East Wind".
+一千吨肥料已由“东风”转装运。</t>
+  </si>
+  <si>
+    <t>We wish you to insure the goods for the invoice value plus 10%.
+我方希望你方按发票金额110%投保。</t>
+  </si>
+  <si>
+    <t>We found half the goods broken.
+发现货物多半破碎。</t>
+  </si>
+  <si>
+    <t>We register our claim with you as follows.
+我方就下列问题向你方提出索赔。</t>
+  </si>
+  <si>
+    <t>When this case was delivered to your carriers, it was full and sound case.
+在我方将本箱交你方承运人时，箱里内容完整无损。</t>
+  </si>
+  <si>
+    <t>For our credit standing, please refer to the Bank of China, Xi'an branch.
+关于我方的资信状况，请向中国银行西安分行查询。</t>
+  </si>
+  <si>
+    <t>We trust that our offer compares moderately with the quotations you can get elsewhere.
+我方相信我方的报价比你方从别处得到的都要公道。</t>
+  </si>
+  <si>
+    <t>Much to our regret, we can't accept your offer for the time being.
+很遗憾，我方暂时不能接受贵方报盘。</t>
+  </si>
+  <si>
+    <t>We can hardly find the Bill of Lading you mentioned in your letter.
+我方没找到你方来信所提到的那张提单。</t>
+  </si>
+  <si>
+    <t>Our clients are in the market for Chinese Green Tea.
+我方客户想要购买中国绿茶。</t>
+  </si>
+  <si>
+    <t>We wish to call your attention to the validity of the offer since there is no possibility of offer extension.
+此报盘无延展可能，特此提醒贵方注意其有效期。</t>
+  </si>
+  <si>
+    <t>The "Revocable" L/C is not acceptable to us.
+我方不接受“可撤销”的信用证。</t>
+  </si>
+  <si>
+    <t>We take the liberty of writing to you with a view to doing business with you.
+我方冒昧自荐，希望和贵方做生意。</t>
+  </si>
+  <si>
+    <t>Establishing the L/C would increase the costs of our import.
+开立信用证会增加我方进口成本。</t>
+  </si>
+  <si>
+    <t>On receipt of your amendment we shall arrange shipment without delay.
+一旦收到贵方修改通知书，我方当即安排交货。</t>
+  </si>
+  <si>
+    <t>As your counter-offer is beyond what is acceptable to us, we can not help but return your order.
+无法接受贵方还盘，只得退回订单。</t>
+  </si>
+  <si>
+    <t>Please arrange for the immediate shipment for our order for the potatoes.
+请贵方马上安排装运这批土豆。</t>
+  </si>
+  <si>
+    <t>We have kept the price close to the costs of productions.
+我方已经把价格压到接近成本了。</t>
+  </si>
+  <si>
+    <t>Please send us your proforma invoice in triplicate.
+请贵方寄形式发票一式三份。</t>
+  </si>
+  <si>
+    <t>We shall be very sorry if this delay has put you to any inconvenience.
+倘若此次延误给贵方造成任何困难，我方将十分抱歉。</t>
+  </si>
+  <si>
+    <t>The details converning packing and marking must be strictly observed.
+关于包装及标志的细节，必须严格遵守。</t>
+  </si>
+  <si>
+    <t>We hope this matter will not affect our good relations in our future dealings.
+我方希望此事不会影响我们在未来交易中的良好关系。</t>
+  </si>
+  <si>
+    <t>Our price is on the high side, but the quality of our products is good.
+虽然我方产品价格偏高，但产品质量很好。</t>
+  </si>
+  <si>
+    <t>It will be appreciated, if you immediately let us have your firm offer for TV sets.
+如果能早日收到贵方有关电视机的实盘，我方将不胜感激。</t>
+  </si>
+  <si>
+    <t>The L/C explicitly stipulates that you shall complete shipment within one month.
+信用证明规定，你方必须在一个月内完成交货。</t>
+  </si>
+  <si>
+    <t>In case of transshipment, we have to pay extra transportation charges and premium.
+货物如果转运，我方得多付运费和保险费。</t>
+  </si>
+  <si>
+    <t>We hope that you'll pay more attention to the quality of your goods in the future.
+希望贵方以后多注意产品的质量问题。</t>
   </si>
   <si>
     <t>Dear Sirs,
     We have obtained your address from Smith company and are now writing you for building up the direct business relations. We enclose a copy of our latest catalogue covering the details of all the items available at present, and hope some of these items will be of interest to you.
     Your favourable reply will be highly appreciated.
-Yours faithfully,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours faithfully,
+执事先生：
     承蒙史密斯公司介绍，使我方获得贵公司的地址，兹写信想与贵公司建立直接贸易关系。随函附上一份有关我方目前可供货物所有详情的目录，希望贵方对其中的一些产品感兴趣。
     如能收到贵公司有利的回复将不胜感激。
 XXX谨上</t>
@@ -862,10 +594,8 @@
     <t>Dear Sirs,
     At your request we are sending you the proforma invoice in triplicate. As the season is rapidly approaching, we believe that your clients are in need of the products. So we look forward to receiving your order at an early date, thus enabling your order to catch the brisk demand at the season.
     We look forward to your early reply.
-Yours tryly,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours tryly,
+执事先生：
     遵照你方要求，我方特此寄送所需的形式发票一式三份。随着销售季节的来临，我方相信你方客户将大量需要这些产品。所以我方希望及早收到你方订单，以便你方能赶上销售季节的市场需求。
     我方期待你方早日答复。
 XXX谨上</t>
@@ -875,10 +605,8 @@
     With reference to our fax dated the 20th of April, requesting you to establish the L/C covering the mentioned order, we have not received the covering Letter of Credit up to the present.
     As the goods have been ready for shipment for quite sometime, it behaves you to take immediate action. Please do your utmost to expedite its establishment.
     We look forward to receiving your favourable response at an early date.
-Yours faithfully,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours faithfully,
+执事先生：
     关于我方4月20日的传真，要求贵方开立有关标题订单的信用证，非常遗憾，直到目前我方仍未收到有关此货的信用证。
     由于货物早已备妥待装，所以贵方应立即采取措施。请尽快开出有关的信用证。
     期盼早日收到贵方佳音。
@@ -924,35 +652,9 @@
     We have received the goods of our Order No. B216 for Tin Foil Sheets. But we regret to say that the goods we received are not up to our standard and they are quite unsalable in this market.
     Needless to say, we have suffered a great loss and require you refund the invoice amount and inspection fee of the goods amounting to USD 5000.
     We feel sure that you will give our claim your most favourable consideration and let us have your settlement at an early date.
-Yours faithfully,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">执事先生：
-                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关于我方第 B216号订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+Yours faithfully,
+执事先生：
+                     关于我方第 B216号订单
     我方第 B216 号订单项下锡箔纸以及时收到。但非常遗憾地告知贵方，我方收到的货物不符合标准，在我方市场上很难销售。
     毫无疑问，我方已经损失很大。我方向你方提出 5000 美元的损失赔偿，包括发票金额和检验费用。
     我方相信贵方一定会对我方索赔给予特别关照并且尽早告知我方结果。
@@ -964,10 +666,8 @@
     We are glad to be informed that you are the buyer of Chinese Cotton Piece Goods. As this item falls within the scope of our business lines, we shall be pleased to enter into direct business relations with you. This happens to coincide with our desire.
     We enclose a brochure and a price list to acquaint you with our commodities now available for export.
     Your favourable reply will be highly appreciated.
-Yours faithfully,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours faithfully,
+执事先生：
     我方得知贵公司是中国棉布的经销商。由于该商品属于我方的经营范围，我方乐于与贵公司建立直接的业务关系，这是我方所盼望的。
     为使贵公司熟悉我方目前可供出口的产品，随函附寄目录本及价目表各一份。
     若能收到贵公司有利的回复将不胜感激。
@@ -978,10 +678,8 @@
     We thank you very much for your quotation of February 15th and the sample sweaters. We find both quality and prices satisfactory and are pleased to place an order with you as follows.
     We expect to find a good market for your products and hope to place further and larger orders with you in the near future.
     We are looking forward to your early reply.
-Yours faithfully,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours faithfully,
+执事先生：
     感谢贵方2月15日的报价和羊绒衫样品。我方对贵方产品的质量和价格均感满意，现向贵方订购下列货物。
     我方期待着为贵方产品开辟一个良好的市场，并希望在将来向贵方下更多更大的订单。
     盼早日回复。
@@ -991,10 +689,8 @@
     <t>Dear Sirs,
     Thank you for your letter of May 10th with the S/C No. 216 for 1000 dozen raincoats. We assure you that we shall work hard to execute the contract to your entire satisfaction.
     The goods will be forwarded to you within one week and further communications will follow.
-Yours faithfully,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours faithfully,
+执事先生：
     贵公司5月10日来函及随附1000打雨衣的第216号合同均收到，谢谢。为使贵公司满意，我方保证尽力执行本合同。
     这批货将在一周内运出。同时，请保持联系为盼。
 XXX谨上</t>
@@ -1004,10 +700,8 @@
     With reference to the 600 sets Forever Brand bicycles under our Sales Contract No.C216, we would draw your attention to the fact that the goods you ordered are ready for shipment and the date of delivery is approaching, but we still have not received your covering L/C to date. Please establish the L/C as soon as possible, so that we may execute your order smoothly.
     Because of the fine quality and reasonable prices, our products sell well all over the world. We suggest your establishing the L/C without delay, so that you can take delivery at an early date.
     We look forward to your early reply.
-Yours sincerely,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours sincerely,
+执事先生：
     关于我方第 C216 号销售合同项下 600 辆永久牌自行车，拟提醒你方注意货已备妥待运且装运期迫近，但至今未收到你方有关信用证。请尽快开来有关信用证，以便我方顺利执行此订单。
     我方产品因其物美价廉，在世界各地卖得很好。我方建议你方尽快开立信用证以便你方能早日提货。
     盼早日回复。
@@ -1022,10 +716,8 @@
     Bill of Lading in duplicate;
     An Insurance Policy.
     Please advise us by cable when the goods have been shipped.
-Yours sincerely,</t>
-  </si>
-  <si>
-    <t>执事先生：
+Yours sincerely,
+执事先生：
     订单号 216 —— 核桃仁
     我方已通过中国银行上海分行开立一张5万美元的信用证，以贵方为受益人，有效期至 6 月 30 日。信用证将由伦敦银行确认。该行将凭单承兑发票所开金额。
     议付需凭下列单证：
@@ -2681,8 +2373,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2694,13 +2394,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2844,14 +2537,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3167,19 +2852,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3188,7 +2873,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3312,7 +2997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3323,10 +3008,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3685,795 +3373,521 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:C100"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="49.2" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="49.2" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="48.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="3" width="57.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="2" width="57.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.4" customHeight="1" spans="2:3">
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="26.4" customHeight="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:3">
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="66" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" ht="70" customHeight="1" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="1" t="s">
+    <row r="4" ht="93" customHeight="1" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" ht="80" customHeight="1" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="1" t="s">
+    <row r="6" ht="81" customHeight="1" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="7" ht="66" customHeight="1" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="1" t="s">
+    <row r="8" ht="69" customHeight="1" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="9" ht="66" customHeight="1" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="1" t="s">
+    <row r="10" ht="72" customHeight="1" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="11" ht="77" customHeight="1" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:3">
-      <c r="B7" s="1" t="s">
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="13" ht="111" customHeight="1" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="1" t="s">
+    <row r="14" ht="97" customHeight="1" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="15" ht="68" customHeight="1" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="1" t="s">
+    <row r="16" ht="98" customHeight="1" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="17" ht="84" customHeight="1" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="1" t="s">
+    <row r="18" ht="76" customHeight="1" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="19" ht="79" customHeight="1" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="1" t="s">
+    <row r="20" ht="82" customHeight="1" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="21" ht="68" customHeight="1" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="1" t="s">
+    <row r="22" ht="67" customHeight="1" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="69" customHeight="1" spans="2:3">
-      <c r="B13" s="1" t="s">
+    <row r="23" customHeight="1" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="24" ht="98" customHeight="1" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:3">
-      <c r="B14" s="1" t="s">
+    <row r="25" ht="78" customHeight="1" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="26" ht="79" customHeight="1" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:3">
-      <c r="B15" s="1" t="s">
+    <row r="27" ht="94" customHeight="1" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="28" ht="96" customHeight="1" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:3">
-      <c r="B16" s="1" t="s">
+    <row r="29" ht="65" customHeight="1" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="30" ht="93" customHeight="1" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:3">
-      <c r="B17" s="1" t="s">
+    <row r="31" ht="65" customHeight="1" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="32" ht="94" customHeight="1" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="1" t="s">
+    <row r="33" ht="65" customHeight="1" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="34" ht="65" customHeight="1" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:3">
-      <c r="B19" s="1" t="s">
+    <row r="35" ht="65" customHeight="1" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="36" ht="65" customHeight="1" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="1" t="s">
+    <row r="37" ht="65" customHeight="1" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="38" ht="65" customHeight="1" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="1" t="s">
+    <row r="39" ht="102" customHeight="1" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="40" ht="65" customHeight="1" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="2:3">
-      <c r="B22" s="1" t="s">
+    <row r="41" ht="97" customHeight="1" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="42" ht="65" customHeight="1" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:2">
-      <c r="B23" s="1" t="s">
+    <row r="43" ht="94" customHeight="1" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="2:3">
-      <c r="B24" s="1" t="s">
+    <row r="44" ht="65" customHeight="1" spans="1:1">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="45" ht="65" customHeight="1" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="2:3">
-      <c r="B25" s="1" t="s">
+    <row r="46" ht="65" customHeight="1" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="47" ht="65" customHeight="1" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="2:3">
-      <c r="B26" s="1" t="s">
+    <row r="48" ht="78" customHeight="1" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="49" ht="65" customHeight="1" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:3">
-      <c r="B27" s="1" t="s">
+    <row r="50" ht="84" customHeight="1" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="51" ht="65" customHeight="1" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:3">
-      <c r="B28" s="1" t="s">
+    <row r="52" ht="65" customHeight="1" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="53" ht="65" customHeight="1" spans="1:1">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="2:3">
-      <c r="B29" s="1" t="s">
+    <row r="54" ht="65" customHeight="1" spans="1:1">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="55" ht="65" customHeight="1" spans="1:1">
+      <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="2:3">
-      <c r="B30" s="1" t="s">
+    <row r="56" ht="65" customHeight="1" spans="1:1">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="57" ht="65" customHeight="1" spans="1:1">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="2:3">
-      <c r="B31" s="1" t="s">
+    <row r="58" ht="65" customHeight="1" spans="1:1">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="59" ht="85" customHeight="1" spans="1:1">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="2:3">
-      <c r="B32" s="1" t="s">
+    <row r="60" ht="65" customHeight="1" spans="1:1">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="61" ht="78" customHeight="1" spans="1:1">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="2:3">
-      <c r="B33" s="1" t="s">
+    <row r="62" ht="93" customHeight="1" spans="1:1">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="63" ht="65" customHeight="1" spans="1:1">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="1" t="s">
+    <row r="64" ht="65" customHeight="1" spans="1:1">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="2:3">
-      <c r="B35" s="1" t="s">
+    <row r="65" ht="65" customHeight="1" spans="1:1">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="66" ht="65" customHeight="1" spans="1:1">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="2:3">
-      <c r="B36" s="1" t="s">
+    <row r="67" ht="65" customHeight="1" spans="1:1">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="68" ht="81" customHeight="1" spans="1:1">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="2:3">
-      <c r="B37" s="1" t="s">
+    <row r="69" ht="65" customHeight="1" spans="1:1">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="70" ht="87" customHeight="1" spans="1:1">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="2:3">
-      <c r="B38" s="1" t="s">
+    <row r="71" ht="65" customHeight="1" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="72" ht="93" customHeight="1" spans="1:1">
+      <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="2:3">
-      <c r="B39" s="1" t="s">
+    <row r="73" ht="79" customHeight="1" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="74" ht="65" customHeight="1" spans="1:1">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:3">
-      <c r="B40" s="1" t="s">
+    <row r="75" ht="79" customHeight="1" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="76" ht="98" customHeight="1" spans="1:1">
+      <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:3">
-      <c r="B41" s="1" t="s">
+    <row r="77" ht="65" customHeight="1" spans="1:1">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="78" ht="85" customHeight="1" spans="1:1">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="2:3">
-      <c r="B42" s="1" t="s">
+    <row r="79" ht="65" customHeight="1" spans="1:1">
+      <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="80" ht="65" customHeight="1" spans="1:1">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="2:3">
-      <c r="B43" s="1" t="s">
+    <row r="81" ht="97" customHeight="1" spans="1:1">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="82" ht="65" customHeight="1" spans="1:1">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="2:3">
-      <c r="B44" s="1" t="s">
+    <row r="83" ht="90" customHeight="1" spans="1:1">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="84" ht="65" customHeight="1" spans="1:1">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="2:2">
-      <c r="B45" s="1" t="s">
+    <row r="85" ht="65" customHeight="1" spans="1:1">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="2:3">
-      <c r="B46" s="1" t="s">
+    <row r="86" ht="111" customHeight="1" spans="1:1">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="87" ht="65" customHeight="1" spans="1:1">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:3">
-      <c r="B47" s="1" t="s">
+    <row r="88" ht="81" customHeight="1" spans="1:1">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="89" ht="65" customHeight="1" spans="1:1">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="2:3">
-      <c r="B48" s="1" t="s">
+    <row r="90" ht="65" customHeight="1" spans="1:1">
+      <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="91" ht="79" customHeight="1" spans="1:1">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="2:3">
-      <c r="B49" s="1" t="s">
+    <row r="92" ht="65" customHeight="1" spans="1:1">
+      <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="93" ht="65" customHeight="1" spans="1:1">
+      <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="2:3">
-      <c r="B50" s="1" t="s">
+    <row r="94" ht="99" customHeight="1" spans="1:1">
+      <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="1" t="s">
+    </row>
+    <row r="95" ht="65" customHeight="1" spans="1:1">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="2:3">
-      <c r="B51" s="1" t="s">
+    <row r="96" ht="92" customHeight="1" spans="1:1">
+      <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="1" t="s">
+    </row>
+    <row r="97" ht="87" customHeight="1" spans="1:1">
+      <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="2:3">
-      <c r="B52" s="1" t="s">
+    <row r="98" ht="94" customHeight="1" spans="1:1">
+      <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="99" ht="65" customHeight="1" spans="1:1">
+      <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="2:3">
-      <c r="B53" s="1" t="s">
+    <row r="100" ht="86" customHeight="1" spans="1:1">
+      <c r="A100" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:3">
-      <c r="B54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="2:3">
-      <c r="B55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:3">
-      <c r="B56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:3">
-      <c r="B57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:2">
-      <c r="B58" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:3">
-      <c r="B59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="2:3">
-      <c r="B60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="2:3">
-      <c r="B61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:3">
-      <c r="B62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="2:3">
-      <c r="B63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="2:3">
-      <c r="B64" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="2:3">
-      <c r="B65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="2:3">
-      <c r="B66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="2:3">
-      <c r="B67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:3">
-      <c r="B68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:2">
-      <c r="B69" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="2:3">
-      <c r="B70" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="2:3">
-      <c r="B71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="2:3">
-      <c r="B72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:3">
-      <c r="B73" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="2:3">
-      <c r="B74" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="2:3">
-      <c r="B75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="2:3">
-      <c r="B76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:3">
-      <c r="B77" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="2:3">
-      <c r="B78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="2:3">
-      <c r="B79" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="2:2">
-      <c r="B80" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="2:3">
-      <c r="B81" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="2:3">
-      <c r="B82" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="2:3">
-      <c r="B83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="2:3">
-      <c r="B84" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:3">
-      <c r="B85" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" ht="63" customHeight="1" spans="2:3">
-      <c r="B86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="2:3">
-      <c r="B87" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="2:3">
-      <c r="B88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="2:3">
-      <c r="B89" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="2:2">
-      <c r="B90" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="2:3">
-      <c r="B91" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="2:3">
-      <c r="B92" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="2:3">
-      <c r="B93" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="2:3">
-      <c r="B94" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="2:3">
-      <c r="B95" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="2:3">
-      <c r="B96" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="2:3">
-      <c r="B97" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="2:3">
-      <c r="B98" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="2:3">
-      <c r="B99" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="2:3">
-      <c r="B100" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4486,398 +3900,270 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C50"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="48.6" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="48.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="48.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="3" width="57.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="57.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="16383" width="8.88888888888889" style="1"/>
+    <col min="16384" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:3">
-      <c r="B1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:3">
-      <c r="B2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:3">
-      <c r="B14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:3">
-      <c r="B16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:3">
-      <c r="B17" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:3">
-      <c r="B22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:3">
-      <c r="B23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:3">
-      <c r="B24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:3">
-      <c r="B25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:3">
-      <c r="B26" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:2">
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="2" ht="74" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" ht="74" customHeight="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" ht="74" customHeight="1" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" ht="74" customHeight="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" ht="74" customHeight="1" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" ht="74" customHeight="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="74" customHeight="1" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" ht="90" customHeight="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" ht="74" customHeight="1" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" ht="74" customHeight="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" ht="74" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:3">
-      <c r="B28" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:3">
-      <c r="B29" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:3">
-      <c r="B30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:3">
-      <c r="B31" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:3">
-      <c r="B32" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:2">
-      <c r="B33" s="1" t="s">
+    <row r="13" ht="74" customHeight="1" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="74" customHeight="1" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="74" customHeight="1" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" ht="74" customHeight="1" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" ht="74" customHeight="1" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" ht="74" customHeight="1" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" ht="74" customHeight="1" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="74" customHeight="1" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="74" customHeight="1" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="74" customHeight="1" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" ht="74" customHeight="1" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" ht="74" customHeight="1" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" ht="74" customHeight="1" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" ht="74" customHeight="1" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" ht="74" customHeight="1" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" ht="74" customHeight="1" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" ht="74" customHeight="1" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" ht="74" customHeight="1" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" ht="74" customHeight="1" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" ht="74" customHeight="1" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" ht="74" customHeight="1" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" ht="74" customHeight="1" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" ht="74" customHeight="1" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" ht="74" customHeight="1" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" ht="74" customHeight="1" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="2:3">
-      <c r="B34" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:3">
-      <c r="B35" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:3">
-      <c r="B36" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:3">
-      <c r="B37" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:3">
-      <c r="B38" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:2">
-      <c r="B39" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:3">
-      <c r="B40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:3">
-      <c r="B41" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:3">
-      <c r="B42" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:3">
-      <c r="B43" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:3">
-      <c r="B44" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:2">
-      <c r="B45" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:3">
-      <c r="B46" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:3">
-      <c r="B47" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:3">
-      <c r="B48" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:3">
-      <c r="B49" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:3">
-      <c r="B50" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
+    <row r="38" ht="74" customHeight="1" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" ht="74" customHeight="1" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" ht="74" customHeight="1" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" ht="74" customHeight="1" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" ht="74" customHeight="1" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" ht="74" customHeight="1" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" ht="74" customHeight="1" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" ht="74" customHeight="1" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" ht="74" customHeight="1" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" ht="74" customHeight="1" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" ht="74" customHeight="1" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" ht="74" customHeight="1" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" ht="74" customHeight="1" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" ht="74" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4888,105 +4174,78 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C26"/>
+  <dimension ref="B2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6666666666667" style="6" customWidth="1"/>
-    <col min="2" max="3" width="74.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="6"/>
+    <col min="1" max="1" width="38.6666666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="74.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" ht="106.2" customHeight="1" spans="2:3">
+    <row r="2" ht="208" customHeight="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="16.8" customHeight="1"/>
     <row r="4" ht="16.8" customHeight="1"/>
-    <row r="5" ht="117" customHeight="1" spans="2:3">
+    <row r="5" ht="229" customHeight="1" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="16.8" customHeight="1"/>
     <row r="7" ht="16.8" customHeight="1"/>
-    <row r="8" ht="156" customHeight="1" spans="2:3">
+    <row r="8" ht="277" customHeight="1" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="18.6" customHeight="1"/>
     <row r="10" ht="18.6" customHeight="1"/>
-    <row r="11" ht="151.8" customHeight="1" spans="2:3">
-      <c r="B11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>283</v>
+    <row r="11" ht="285" customHeight="1" spans="2:2">
+      <c r="B11" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1"/>
     <row r="13" ht="18" customHeight="1"/>
-    <row r="14" ht="143" customHeight="1" spans="2:3">
+    <row r="14" ht="237" customHeight="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>285</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" ht="16.2" customHeight="1"/>
     <row r="16" ht="16.2" customHeight="1"/>
-    <row r="17" ht="126.6" customHeight="1" spans="2:3">
+    <row r="17" ht="247" customHeight="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>287</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" ht="20.4" customHeight="1"/>
     <row r="19" ht="20.4" customHeight="1"/>
-    <row r="20" ht="125" customHeight="1" spans="2:3">
+    <row r="20" ht="206" customHeight="1" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" ht="19.2" customHeight="1"/>
     <row r="22" ht="19.2" customHeight="1"/>
-    <row r="23" ht="178.2" customHeight="1" spans="2:3">
+    <row r="23" ht="325" customHeight="1" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" ht="16.8" customHeight="1"/>
     <row r="25" ht="16.8" customHeight="1"/>
-    <row r="26" ht="184" customHeight="1" spans="2:3">
+    <row r="26" ht="343" customHeight="1" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>293</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5001,8 +4260,8 @@
   <sheetPr/>
   <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -5017,2116 +4276,2116 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>294</v>
+      <c r="C1" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>306</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>309</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>314</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>319</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>323</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>326</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>330</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>334</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>339</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>340</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>341</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>343</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>344</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45" customHeight="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>345</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>346</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>347</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>348</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>349</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>350</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>351</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>352</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="45" customHeight="1" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>354</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>355</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>357</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>358</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>359</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>360</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>363</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>364</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>366</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="46.05" customHeight="1" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>367</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>373</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>374</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>375</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>376</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>379</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>380</v>
+        <v>238</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>381</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>382</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>383</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>384</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>386</v>
+        <v>244</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>387</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>388</v>
+        <v>246</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>389</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>391</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>392</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>393</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>394</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>395</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>396</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>397</v>
+        <v>255</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>399</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>400</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>401</v>
+        <v>259</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>402</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>403</v>
+        <v>261</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>404</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>405</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>406</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>407</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>408</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>409</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>410</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>411</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>412</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>413</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>415</v>
+        <v>273</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>416</v>
+        <v>274</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>418</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>419</v>
+        <v>277</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>420</v>
+        <v>278</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>421</v>
+        <v>279</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>422</v>
+        <v>280</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>423</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>424</v>
+        <v>282</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>426</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>427</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>428</v>
+        <v>286</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>429</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>430</v>
+        <v>288</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>431</v>
+        <v>289</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>433</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>434</v>
+        <v>292</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>435</v>
+        <v>293</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>438</v>
+        <v>296</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>439</v>
+        <v>297</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>440</v>
+        <v>298</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>441</v>
+        <v>299</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>442</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>443</v>
+        <v>301</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>444</v>
+        <v>302</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>445</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>446</v>
+        <v>304</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>447</v>
+        <v>305</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>448</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>449</v>
+        <v>307</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>451</v>
+        <v>309</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>452</v>
+        <v>310</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>453</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>455</v>
+        <v>313</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>456</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>457</v>
+        <v>315</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>458</v>
+        <v>316</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>459</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>460</v>
+        <v>318</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>462</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>463</v>
+        <v>321</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>464</v>
+        <v>322</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>466</v>
+        <v>324</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>468</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>470</v>
+        <v>328</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>471</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>473</v>
+        <v>331</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>474</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>475</v>
+        <v>333</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>476</v>
+        <v>334</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>477</v>
+        <v>335</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>478</v>
+        <v>336</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>479</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>480</v>
+        <v>338</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>482</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>483</v>
+        <v>341</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>484</v>
+        <v>342</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>485</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>486</v>
+        <v>344</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>487</v>
+        <v>345</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>488</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>489</v>
+        <v>347</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>490</v>
+        <v>348</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>491</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>492</v>
+        <v>350</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>493</v>
+        <v>351</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>494</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>495</v>
+        <v>353</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>496</v>
+        <v>354</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>497</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>498</v>
+        <v>356</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>499</v>
+        <v>357</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>500</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>501</v>
+        <v>359</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>502</v>
+        <v>360</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>503</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>504</v>
+        <v>362</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>505</v>
+        <v>363</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>506</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>507</v>
+        <v>365</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>508</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>509</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>510</v>
+        <v>368</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>511</v>
+        <v>369</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>512</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>513</v>
+        <v>371</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>514</v>
+        <v>372</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>515</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>516</v>
+        <v>374</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>518</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>519</v>
+        <v>377</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>520</v>
+        <v>378</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>521</v>
+        <v>379</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>522</v>
+        <v>380</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>523</v>
+        <v>381</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>524</v>
+        <v>382</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>525</v>
+        <v>383</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>526</v>
+        <v>384</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>527</v>
+        <v>385</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>528</v>
+        <v>386</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>529</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>530</v>
+        <v>388</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>531</v>
+        <v>389</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>532</v>
+        <v>390</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>533</v>
+        <v>391</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>534</v>
+        <v>392</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>535</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>536</v>
+        <v>394</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>537</v>
+        <v>395</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>538</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>539</v>
+        <v>397</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>540</v>
+        <v>398</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>541</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>542</v>
+        <v>400</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>543</v>
+        <v>401</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>544</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>545</v>
+        <v>403</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>546</v>
+        <v>404</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>547</v>
+        <v>405</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>548</v>
+        <v>406</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>549</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>550</v>
+        <v>408</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>551</v>
+        <v>409</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>552</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>565</v>
+        <v>423</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>566</v>
+        <v>424</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>567</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>568</v>
+        <v>426</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>570</v>
+        <v>427</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>571</v>
+        <v>429</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>572</v>
+        <v>430</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>573</v>
+        <v>431</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>574</v>
+        <v>432</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>575</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>576</v>
+        <v>434</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>577</v>
+        <v>435</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>578</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>579</v>
+        <v>437</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>580</v>
+        <v>438</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>582</v>
+        <v>440</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>583</v>
+        <v>441</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>584</v>
+        <v>442</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>585</v>
+        <v>443</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>586</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>587</v>
+        <v>445</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>588</v>
+        <v>446</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>589</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>590</v>
+        <v>448</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>591</v>
+        <v>449</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>592</v>
+        <v>450</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>593</v>
+        <v>451</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>594</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>595</v>
+        <v>453</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>596</v>
+        <v>454</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>597</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>598</v>
+        <v>456</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>599</v>
+        <v>457</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>600</v>
+        <v>458</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>601</v>
+        <v>459</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>602</v>
+        <v>460</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>603</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>604</v>
+        <v>462</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>605</v>
+        <v>463</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>606</v>
+        <v>464</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>607</v>
+        <v>465</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>608</v>
+        <v>466</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>609</v>
+        <v>467</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>610</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>611</v>
+        <v>469</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>612</v>
+        <v>470</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>613</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>614</v>
+        <v>472</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>615</v>
+        <v>473</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>616</v>
+        <v>474</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>618</v>
+        <v>475</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>619</v>
+        <v>477</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>620</v>
+        <v>478</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>621</v>
+        <v>479</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>622</v>
+        <v>480</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>623</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>624</v>
+        <v>482</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>627</v>
+        <v>485</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>628</v>
+        <v>486</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>629</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>630</v>
+        <v>488</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>631</v>
+        <v>489</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>632</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>633</v>
+        <v>491</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>634</v>
+        <v>492</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>635</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>636</v>
+        <v>494</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>638</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>640</v>
+        <v>498</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>641</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>642</v>
+        <v>500</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>643</v>
+        <v>501</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>644</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>645</v>
+        <v>503</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>646</v>
+        <v>504</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>647</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>648</v>
+        <v>506</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>649</v>
+        <v>507</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>650</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>651</v>
+        <v>509</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>652</v>
+        <v>510</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>653</v>
+        <v>511</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>654</v>
+        <v>512</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>655</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>656</v>
+        <v>514</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>657</v>
+        <v>515</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>658</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>659</v>
+        <v>517</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>660</v>
+        <v>518</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>661</v>
+        <v>519</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>662</v>
+        <v>520</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>663</v>
+        <v>521</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>664</v>
+        <v>522</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>665</v>
+        <v>523</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>666</v>
+        <v>524</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>667</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>669</v>
+        <v>527</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>670</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>671</v>
+        <v>529</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>672</v>
+        <v>530</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>673</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>674</v>
+        <v>532</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>675</v>
+        <v>533</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>676</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>677</v>
+        <v>535</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>678</v>
+        <v>536</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>679</v>
+        <v>537</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>680</v>
+        <v>538</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>681</v>
+        <v>539</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>682</v>
+        <v>540</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>683</v>
+        <v>541</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>684</v>
+        <v>542</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>685</v>
+        <v>543</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>686</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>687</v>
+        <v>545</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>688</v>
+        <v>546</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>690</v>
+        <v>548</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>435</v>
+        <v>293</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>691</v>
+        <v>549</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>692</v>
+        <v>550</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>693</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>694</v>
+        <v>552</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>695</v>
+        <v>553</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>696</v>
+        <v>554</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>697</v>
+        <v>555</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>698</v>
+        <v>556</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>699</v>
+        <v>557</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>700</v>
+        <v>558</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>701</v>
+        <v>559</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>702</v>
+        <v>560</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>703</v>
+        <v>561</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>704</v>
+        <v>562</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>575</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>705</v>
+        <v>563</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>706</v>
+        <v>564</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>707</v>
+        <v>565</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>708</v>
+        <v>566</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>709</v>
+        <v>567</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>710</v>
+        <v>568</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>711</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>712</v>
+        <v>570</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>713</v>
+        <v>571</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>714</v>
+        <v>572</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>715</v>
+        <v>573</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>716</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>717</v>
+        <v>575</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>718</v>
+        <v>576</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>719</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>720</v>
+        <v>578</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>721</v>
+        <v>579</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>722</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>723</v>
+        <v>581</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>724</v>
+        <v>582</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>725</v>
+        <v>583</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>726</v>
+        <v>584</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>727</v>
+        <v>585</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>728</v>
+        <v>586</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>729</v>
+        <v>587</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>730</v>
+        <v>588</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>731</v>
+        <v>589</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>732</v>
+        <v>590</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>733</v>
+        <v>591</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>734</v>
+        <v>592</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>735</v>
+        <v>593</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>736</v>
+        <v>594</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>737</v>
+        <v>595</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A168" s="2" t="s">
-        <v>738</v>
+        <v>596</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>739</v>
+        <v>597</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>740</v>
+        <v>598</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A169" s="2" t="s">
-        <v>741</v>
+        <v>599</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>742</v>
+        <v>600</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>743</v>
+        <v>601</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>744</v>
+        <v>602</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>745</v>
+        <v>603</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A171" s="2" t="s">
-        <v>746</v>
+        <v>604</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>747</v>
+        <v>605</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>748</v>
+        <v>606</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A172" s="2" t="s">
-        <v>749</v>
+        <v>607</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>750</v>
+        <v>608</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>751</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A173" s="2" t="s">
-        <v>752</v>
+        <v>610</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>753</v>
+        <v>611</v>
       </c>
       <c r="C173" s="2"/>
     </row>
     <row r="174" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A174" s="2" t="s">
-        <v>754</v>
+        <v>612</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>755</v>
+        <v>613</v>
       </c>
       <c r="C174" s="2"/>
     </row>
     <row r="175" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>756</v>
+        <v>614</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>757</v>
+        <v>615</v>
       </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>758</v>
+        <v>616</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>759</v>
+        <v>617</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>760</v>
+        <v>618</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>761</v>
+        <v>619</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>762</v>
+        <v>620</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>763</v>
+        <v>621</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>764</v>
+        <v>622</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>765</v>
+        <v>623</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>766</v>
+        <v>624</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>767</v>
+        <v>625</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>769</v>
+        <v>626</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>770</v>
+        <v>628</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>772</v>
+        <v>629</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A182" s="2" t="s">
-        <v>773</v>
+        <v>631</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>774</v>
+        <v>632</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>775</v>
+        <v>633</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>776</v>
+        <v>634</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>777</v>
+        <v>635</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>778</v>
+        <v>636</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>779</v>
+        <v>637</v>
       </c>
       <c r="C184" s="2"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>780</v>
+        <v>638</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>781</v>
+        <v>639</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>782</v>
+        <v>640</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>783</v>
+        <v>641</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>784</v>
+        <v>642</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A187" s="2" t="s">
-        <v>785</v>
+        <v>643</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>786</v>
+        <v>644</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>787</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>788</v>
+        <v>646</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>789</v>
+        <v>647</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>790</v>
+        <v>648</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>791</v>
+        <v>649</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>792</v>
+        <v>650</v>
       </c>
       <c r="C189" s="2"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>793</v>
+        <v>651</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>794</v>
+        <v>652</v>
       </c>
       <c r="C190" s="2"/>
     </row>
     <row r="191" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>795</v>
+        <v>653</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>796</v>
+        <v>654</v>
       </c>
       <c r="C191" s="2"/>
     </row>
     <row r="192" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>797</v>
+        <v>655</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>798</v>
+        <v>656</v>
       </c>
       <c r="C192" s="2"/>
     </row>
     <row r="193" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>799</v>
+        <v>657</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>800</v>
+        <v>658</v>
       </c>
       <c r="C193" s="2"/>
     </row>
     <row r="194" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>801</v>
+        <v>659</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>802</v>
+        <v>660</v>
       </c>
       <c r="C194" s="2"/>
     </row>
     <row r="195" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>803</v>
+        <v>661</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>804</v>
+        <v>662</v>
       </c>
       <c r="C195" s="2"/>
     </row>
     <row r="196" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>805</v>
+        <v>663</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>806</v>
+        <v>664</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>807</v>
+        <v>665</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>808</v>
+        <v>666</v>
       </c>
       <c r="C197" s="2"/>
     </row>
     <row r="198" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>809</v>
+        <v>667</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>810</v>
+        <v>668</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>811</v>
+        <v>669</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>812</v>
+        <v>670</v>
       </c>
       <c r="C199" s="2"/>
     </row>
     <row r="200" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>813</v>
+        <v>671</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>814</v>
+        <v>672</v>
       </c>
       <c r="C200" s="2"/>
     </row>
     <row r="201" ht="33" customHeight="1" spans="1:2">
       <c r="A201" s="2" t="s">
-        <v>815</v>
+        <v>673</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>806</v>
+        <v>664</v>
       </c>
     </row>
     <row r="202" ht="33" customHeight="1" spans="1:2">
       <c r="A202" s="2" t="s">
-        <v>816</v>
+        <v>674</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>817</v>
+        <v>675</v>
       </c>
     </row>
     <row r="203" ht="33" customHeight="1" spans="1:2">
       <c r="A203" s="2" t="s">
-        <v>818</v>
+        <v>676</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>819</v>
+        <v>677</v>
       </c>
     </row>
     <row r="204" ht="33" customHeight="1" spans="1:2">
       <c r="A204" s="2" t="s">
-        <v>820</v>
+        <v>678</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>821</v>
+        <v>679</v>
       </c>
     </row>
     <row r="205" ht="33" customHeight="1" spans="1:2">
       <c r="A205" s="2" t="s">
-        <v>822</v>
+        <v>680</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>823</v>
+        <v>681</v>
       </c>
     </row>
     <row r="206" ht="33" customHeight="1" spans="1:2">
       <c r="A206" s="2" t="s">
-        <v>824</v>
+        <v>682</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>825</v>
+        <v>683</v>
       </c>
     </row>
     <row r="207" ht="33" customHeight="1" spans="1:2">
       <c r="A207" s="2" t="s">
-        <v>826</v>
+        <v>684</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>827</v>
+        <v>685</v>
       </c>
     </row>
     <row r="208" ht="33" customHeight="1" spans="1:2">
       <c r="A208" s="2" t="s">
-        <v>828</v>
+        <v>686</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>829</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
